--- a/Pandas & Openpyxl module_programs/test1.xlsx
+++ b/Pandas & Openpyxl module_programs/test1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akumar6\PycharmProjects\Practice_programs\Pandas_module_programs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akumar6\PycharmProjects\Practice_programs\Pandas &amp; Openpyxl module_programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>07/08/20</t>
   </si>
@@ -96,13 +96,59 @@
   </si>
   <si>
     <t>File transferred via WinSCp in the remote_directory, the files are not getting picked up in the Oracle programs and noticing "No such file or directory", also "Cannot access"</t>
+  </si>
+  <si>
+    <t>CF CAI E2E Stage Scenerio #</t>
+  </si>
+  <si>
+    <t>E2E-2</t>
+  </si>
+  <si>
+    <t>E2E-26B</t>
+  </si>
+  <si>
+    <t>E2E-23</t>
+  </si>
+  <si>
+    <t>E2E 14</t>
+  </si>
+  <si>
+    <t>E2E-28B</t>
+  </si>
+  <si>
+    <t>E2E 15</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Project creation template we can refer to E2E-20 which is PASSED</t>
+  </si>
+  <si>
+    <t>Noticing performance issue when opening the output / Log file</t>
+  </si>
+  <si>
+    <t>Autocopy Journal program is failing</t>
+  </si>
+  <si>
+    <t>Results/Issues/Comments</t>
+  </si>
+  <si>
+    <t>Oracle concurrent program issue</t>
+  </si>
+  <si>
+    <t>Initiated build now</t>
+  </si>
+  <si>
+    <t>same as E2E 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +177,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDA846B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,11 +219,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -173,6 +259,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,18 +651,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -578,7 +678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -592,8 +692,134 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="E7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="E8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="E9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="E10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="5:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="5:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="E18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="E19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -601,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:AA3"/>
     </sheetView>
   </sheetViews>
